--- a/src/data/users.xlsx
+++ b/src/data/users.xlsx
@@ -413,249 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
-    <col width="19" customWidth="1" min="5" max="5"/>
-    <col width="19" customWidth="1" min="6" max="6"/>
-    <col width="19" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
-    <col width="19" customWidth="1" min="9" max="9"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>user_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>username</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>mailing_time</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>locale</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>canteen_id</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>updated_at</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Cooocooonut</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20:26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ru</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>23:00 - 22.07.2024</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>21:39 - 10.08.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1603789543</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ar</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>23:34 - 22.07.2024</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>23:34 - 22.07.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>6959852164</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nonename </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11:45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ru</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>16:42 - 01.08.2024</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>16:42 - 01.08.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>603789543</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MafiaCoconut</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Alex Kachanov</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11:45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ru</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>15:47 - 22.08.2024</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>15:48 - 22.08.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/data/users.xlsx
+++ b/src/data/users.xlsx
@@ -413,14 +413,291 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>mailing_time</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>locale</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>canteen_id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1603789543</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>23:34 - 22.07.2024</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>23:34 - 22.07.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6959852164</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nonename </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ru</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>16:42 - 01.08.2024</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>16:42 - 01.08.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>603789543</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MafiaCoconut</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Alex Kachanov</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ru</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>15:47 - 22.08.2024</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>16:50 - 30.08.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6016855180</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cooocooonut</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">🥥 </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ru</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23:37 - 28.08.2024</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>23:40 - 28.08.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>601605560</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BubbleTeeAusDemArmel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Еvа✨ </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ru</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23:39 - 28.08.2024</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>23:57 - 28.08.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>